--- a/biology/Médecine/Trypanosomiase/Trypanosomiase.xlsx
+++ b/biology/Médecine/Trypanosomiase/Trypanosomiase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trypanosomiases sont des infections aux parasites trypanosomes. Les trypanosomiases humaines sont endémiques dans deux régions du monde : l'Afrique et l'Amérique du Sud. Il existe, y compris dans d'autres régions du monde, des trypanosomiases qui touchent d'autres espèces mais qui sont sans danger pour l'homme ; elles peuvent cependant causer d'importants dommages sur les animaux d'élevage.
 Elles sont en général transmises par des animaux hématophages : punaises, mouche tsé-tsé en Afrique, vampire (Desmodontinae) en Amérique du Sud.
@@ -512,9 +524,11 @@
           <t>Trypanosomiases humaines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Trypanosomiase humaine africaine : maladie du sommeil. Elle est provoquée par deux sous espèces de Trypanosoma brucei : T. b. rhodesiense et T. b. gambiense[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Trypanosomiase humaine africaine : maladie du sommeil. Elle est provoquée par deux sous espèces de Trypanosoma brucei : T. b. rhodesiense et T. b. gambiense.
 Trypanosomiase américaine : maladie de Chagas, également nommé mal de Calderas.</t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Trypanosomiases animales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nagana, n'gana, ou trypanosomiase animale africaine, également appelée Souma ou Soumaya au Soudan. Elle peut être provoquée par les trois sous espèces de Trypanosoma brucei[1].
-Surra, maladie affectant les dromadaires, le bœuf domestique, le cochon, le mouton et la chèvre, et parfois les chats, les chiens et les équidés. Elle peut très rarement affecter l'humain. Elle est provoquée par Trypanosoma evansi. Elle est considérée non pathogénique chez le Buffle d'Afrique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nagana, n'gana, ou trypanosomiase animale africaine, également appelée Souma ou Soumaya au Soudan. Elle peut être provoquée par les trois sous espèces de Trypanosoma brucei.
+Surra, maladie affectant les dromadaires, le bœuf domestique, le cochon, le mouton et la chèvre, et parfois les chats, les chiens et les équidés. Elle peut très rarement affecter l'humain. Elle est provoquée par Trypanosoma evansi. Elle est considérée non pathogénique chez le Buffle d'Afrique.
 Mal de caderas (Amérique du Sud centrale).
 Murrina de caderas (Panama ;  Derrengadera de caderas).
 Dourine (trypanosomiase spécifique des équidés).
@@ -587,9 +603,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La trypanosomiase humaine africaine se traite avec de la pentamidine, éflornithine, nifurtimox ou fexinidazole[3]. La tripanosomiase  américaine se traite avec du benznidazole ou du nifurtimox[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La trypanosomiase humaine africaine se traite avec de la pentamidine, éflornithine, nifurtimox ou fexinidazole. La tripanosomiase  américaine se traite avec du benznidazole ou du nifurtimox.
 </t>
         </is>
       </c>
